--- a/tomcat_install.xlsx
+++ b/tomcat_install.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\skullee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA30B4C-3E4B-4D2C-A696-DD4477A7E858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7AB59E-AB23-4E2A-ACFF-0984682CFB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59C11518-6BFC-4D5D-9B45-C94185E60ED1}"/>
+    <workbookView xWindow="1095" yWindow="240" windowWidth="24060" windowHeight="14775" xr2:uid="{59C11518-6BFC-4D5D-9B45-C94185E60ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="tomcat" sheetId="1" r:id="rId1"/>
@@ -20,962 +20,2287 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>keduit</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00DAE8B1-687D-4DD8-A0E9-FBAEB349785B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1. epel</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">? </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보통</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기업용으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본저장소에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>많은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>패키지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>말한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 
+2. epel-release</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설치하는데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명령을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이유</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: epel-release</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> epel</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "powertools" </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장소에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때문에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "powertools"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저장소를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>활성화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>작업을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해준다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{F681B282-CA11-45BB-ABF7-C0C358B504C0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여기서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> hostname</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> tomcat</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이라고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지었기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때문에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>앞으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로그인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하거나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>쉘을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실행하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>호스트명이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> tomcat</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{761BD164-37EF-4CCB-89F6-C5F9B279CC69}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sed -i : vi</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>거치지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>쉘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스크립트를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여기서는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> selinux=enforcing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는것을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> permissive</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바꿔준다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{7C2FB6DC-A0A4-42A2-9D6D-E8064E2FC347}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컴퓨터를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끄지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용함</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="277">
+  <si>
+    <t>dnf repolist</t>
+  </si>
+  <si>
+    <t>hostnamectl set-hostname tomcat</t>
+  </si>
+  <si>
+    <t>dnf install chrony -y</t>
+  </si>
+  <si>
+    <t>server time.bora.net</t>
+  </si>
+  <si>
+    <t>server time.google.com</t>
+  </si>
+  <si>
+    <t>EOF</t>
+  </si>
+  <si>
+    <t>dnf list java*</t>
+  </si>
+  <si>
+    <t>dnf install java-1.8.0-openjdk.x86_64 -y</t>
+  </si>
+  <si>
+    <t>java -version</t>
+  </si>
+  <si>
+    <t>update-alternatives --config java</t>
+  </si>
+  <si>
+    <t>groupadd tomcat</t>
+  </si>
+  <si>
+    <t>ls -l /opt</t>
+  </si>
+  <si>
+    <t>sh -c 'chmod +x /opt/tomcat/bin/*.sh'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -al /opt/tomcat/bin | grep ".sh" </t>
+  </si>
+  <si>
+    <t>/opt/tomcat/bin/startup.sh</t>
+  </si>
+  <si>
+    <t>ps -ef | grep tomcat</t>
+  </si>
+  <si>
+    <t>/opt/tomcat/bin/shutdown.sh</t>
+  </si>
+  <si>
+    <t>ss -tnlp | grep java</t>
+  </si>
+  <si>
+    <t>firewall-cmd --reload</t>
+  </si>
+  <si>
+    <t>firewall-cmd --list-all</t>
+  </si>
+  <si>
+    <t>cat &lt;&lt;EOF &gt;/etc/systemd/system/tomcat.service</t>
+  </si>
+  <si>
+    <t>[Unit]</t>
+  </si>
+  <si>
+    <t>Description=Tomcat webs servlet container</t>
+  </si>
+  <si>
+    <t>After=network.target</t>
+  </si>
+  <si>
+    <t>[Service]</t>
+  </si>
+  <si>
+    <t>Type=forking</t>
+  </si>
+  <si>
+    <t>User=tomcat</t>
+  </si>
+  <si>
+    <t>Group=tomcat</t>
+  </si>
+  <si>
+    <t>Environment="JAVA_HOME=/usr/lib/jvm/jre"</t>
+  </si>
+  <si>
+    <t>Environment="JAVA_OPTS=-Djava.awt.headless=true -Djava.security.egd=file:/dev/./urandom"</t>
+  </si>
+  <si>
+    <t>Environment="CATALINA_BASE=/opt/tomcat"</t>
+  </si>
+  <si>
+    <t>Environment="CATALINA_HOME=/opt/tomcat"</t>
+  </si>
+  <si>
+    <t>Environment="CATALINA_PID=/opt/tomcat/temp/tomcat.pid"</t>
+  </si>
+  <si>
+    <t>Environment="CATALINA_OPTS=-Xms512M -Xmx1024M -server -XX:+UseParallelGC"</t>
+  </si>
+  <si>
+    <t>ExecStart=/opt/tomcat/bin/startup.sh</t>
+  </si>
+  <si>
+    <t>ExecStop=/opt/tomcat/bin/shutdown.sh</t>
+  </si>
+  <si>
+    <t>[Install]</t>
+  </si>
+  <si>
+    <t>WantedBy=multi-user.target</t>
+  </si>
+  <si>
+    <t>systemctl start tomcat</t>
+  </si>
+  <si>
+    <t>systemctl enable tomcat</t>
+  </si>
+  <si>
+    <t>연동 방식은 mod_jk / mod_proxy / mod_prox_ajp 3가지 모듈 방식이 있지만 아파치에서 가장 많이 사용되는 mod_jk 이용 연동</t>
+  </si>
+  <si>
+    <t>dnf install httpd make gcc gcc-c++ httpd-devel redhat-rpm-config -y</t>
+  </si>
+  <si>
+    <t>wget https://dlcdn.apache.org/tomcat/tomcat-connectors/jk/tomcat-connectors-1.2.48-src.tar.gz</t>
+  </si>
+  <si>
+    <t>tar zxvf tomcat-connectors-1.2.48-src.tar.gz</t>
+  </si>
+  <si>
+    <t>cd tomcat-connectors-1.2.48-src/native</t>
+  </si>
+  <si>
+    <t>./configure --with-apxs=/usr/bin/apxs</t>
+  </si>
+  <si>
+    <t>make &amp;&amp; make install</t>
+  </si>
+  <si>
+    <t>ls -al /etc/httpd/modules/mod_jk.so</t>
+  </si>
+  <si>
+    <t>echo 'LoadModule jk_module modules/mod_jk.so' &gt;&gt; /etc/httpd/conf.modules.d/00-base.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat &lt;&lt;EOF &gt; /etc/httpd/conf.d/tomcat-vhost.conf </t>
+  </si>
+  <si>
+    <t>&lt;VirtualHost *:80&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ServerName localhost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DocumentRoot "/opt/tomcat/webapps/ROOT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;Directory "/opt/tomcat/webapps/ROOT"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          AllowOverride None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Require all granted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;/Directory&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DirectoryIndex index.html index.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JkMount /*.jsp tomcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JkMount /*.json tomcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JkMount /*.xml tomcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JkMount /*.do tomcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JkMount / tomcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JkMount /* tomcat</t>
+  </si>
+  <si>
+    <t>&lt;/VirtualHost&gt;</t>
+  </si>
+  <si>
+    <t>cat &lt;&lt;EOF &gt; /etc/httpd/conf.d/workers.properties</t>
+  </si>
+  <si>
+    <t>worker.list=tomcat</t>
+  </si>
+  <si>
+    <t>worker.tomcat.port=8009</t>
+  </si>
+  <si>
+    <t>worker.tomcat.host=localhost</t>
+  </si>
+  <si>
+    <t>worker.tomcat.type=ajp13</t>
+  </si>
+  <si>
+    <t>worker.tomcat.lbfactor=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat &lt;&lt;EOF &gt; /etc/httpd/conf.modules.d/mod_jk.conf </t>
+  </si>
+  <si>
+    <t>&lt;IfModule mod_jk.c&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   JkWorkersFile conf.d/workers.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   JkShmFile run/mod_jk.shm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   JkLogFile logs/mod_jk.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   JkLogLevel info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   JkLogStampFormat "[%y-%m-%d %H:%M:%S.%Q] "</t>
+  </si>
+  <si>
+    <t>&lt;/IfModule&gt;</t>
+  </si>
+  <si>
+    <t>sed -i "s/^User apache/User tomcat/" /etc/httpd/conf/httpd.conf</t>
+  </si>
+  <si>
+    <t>sed -i "s/^Group apache/Group tomcat/" /etc/httpd/conf/httpd.conf</t>
+  </si>
+  <si>
+    <t>firewall-cmd --permanent --add-port=80/tcp</t>
+  </si>
+  <si>
+    <t>ls -l /opt/tomcat/conf</t>
+  </si>
+  <si>
+    <t>vi /opt/tomcat/conf/tomcat-users.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;role rolename="manager-gui"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;role rolename="manager-script"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;role rolename="manager-status"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Valve className="org.apache.catalina.valves.RemoteAddrValve"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       allow=".*" /&gt;</t>
+  </si>
+  <si>
+    <t>vi /opt/tomcat/webapps/host-manager/META-INF/context.xml</t>
+  </si>
+  <si>
+    <t>dnf install mysql-server mysql -y</t>
+  </si>
+  <si>
+    <t>systemctl enable --now mysqld</t>
+  </si>
+  <si>
+    <t>LOW : 8자리 이상</t>
+  </si>
+  <si>
+    <t>MEDIUM : 8자리 이상 + 숫자 + 대문자 + 소문자 + 특수문자가 모두 포함되어 있어야 함</t>
+  </si>
+  <si>
+    <t>STRONG : MEDIUM 정책 + dictionary file이란 것을 등록해서 사용하게 되고 이 파일에 포함되 단어는 비밀번호로 사용할 수 없다.</t>
+  </si>
+  <si>
+    <t># Password Policy</t>
+  </si>
+  <si>
+    <t>validate_password.length=4</t>
+  </si>
+  <si>
+    <t>validate_password.mixed_case_count=0</t>
+  </si>
+  <si>
+    <t>validate_password.number_count=0</t>
+  </si>
+  <si>
+    <t>validate_password.policy=LOW</t>
+  </si>
+  <si>
+    <t>validate_password.special_char_count=0</t>
+  </si>
+  <si>
+    <t>1. 기본 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1). 시스템 update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2). epel-release 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3). 설치 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4). hostname 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5). selinux 해제및 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6). ntp 동기화 서비스 설치 및 server 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. tomcat 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1). java 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2). tomcat user 및 group 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3). tomcat 다운로드 및 tomcat 다운로드를 위한 wget과 tar 압축지원 프로그램 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4). tomcat 가동을 위한 환경 설정 및 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. apache(httpd) 서버 설치 및 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1). apache(httpd)설치 및 mod_jk source 설치를 위한 컴파일 도구 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2). tomcat 가상 호스트 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. tomcat web 관리 사용자 계정 추가 및 접속 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. mysql DB 설치 및 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 ntp 서버 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default ntp 동기화 pool과 서버 주석처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntp 동기화 서비스 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronyd 서비스 시작 및 시작 서비스 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntp source 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 표준시간(KST) 시간 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 가능한 java jdk 버전확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java jdk 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치된 java version 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러개의 java jdk가 설치되어 있을 경우 활성화할 java jdk 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 그룹 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat user 생성 및 tomcat 그룹에 추가하고 tomcat의 home directory 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat user 생성 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 다운로드 시 필요한 프로그램 설치 (gzip, bzip2, xz, zip, unzip은 압축해제 프로그램으로 gzip만 설치해도 됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 다운로드(https://tomcat.apache.org 에서 필요한 버전 선택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운받은 tomcat 압축을 /opt/tomcat 폴더에 해제 (--strip-components는 상위 디렉터리 1개 없애줌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축이 정상적으로 풀려서 원하는 폴더에 설치되어 있는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/tomcat 폴더의 소유자및 그룹 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유자 및 그룹 지정 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 실행 shell script에 실행 권한 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 권한 지정 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 실행 확인 위한 log 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail -n 20 /opt/tomcat/logs/catalina.out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 실행 port 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 실행 port 방화벽 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 서비스로 등록해 사용하기 위한 서비스 파일 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 서비스 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정상 실행이 되지 않고 에러 발생 시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">chown -R tomcat:tomcat /opt/tomcat </t>
+  </si>
+  <si>
+    <t>mod_jk는 source install을 통해 apache module에 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apache(httpd)설치 및 컴파일 도구 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_jk 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source 컴파일을 위해 소스가 있는 폴더로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configure를 통해 컴파일 환경설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴파일(make) 및 실행 파일 복사(make install)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_jk 모듈이 아파치 모듈에 설치되어 있는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_jk 모듈을 아파치 모듈 환경설정에 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 가상 호스트 파일 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인 이름이 있는 경우 도메인 이름으로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat의 root directory 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디렉터리 접근 방식 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 문서 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jk_mod를 통해 jsp, json, xml, do 파일과 경로만 지정된 경우 tomcat이라는 이름을 가진 worker를 통해 요청을 보내도록 하는 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 부분이 없으면 연동이 되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker 파일 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker 파일 이름으로 가상호스트에서 jkMount의 제일 마지막에 있는 이름과 일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker의 port 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker의 host로 tomcat이 다른 서버에 구축되어 있다면 해당 IP를 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apahce와 Tomcat이 통신하기 위한 Protocol(프로토콜) ajp13을 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일종의 로드밸런싱 같은 개념으로 1개일 때는 크게 의미가 없으나 2개 이상의 톰캣을 설치하여 운영할 경우 숫자의 비율로 작업을 처리한다는 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_jk 환경 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workers 파일 정의 설정 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유 메모리 파일 위치, Selinux 보안을 사용할 경우는 무조건 run 경로로 설정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 생성 경로, 일정 버전 이상일 경우는 로테이션 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 파일에 있는 날짜/시간 형식 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apahce(httpd)실행 시 사용자, 그룹을 tomcat으로 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apache(httpd) port 방화벽 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 추가를 위한 tomcat-users.xml 파일 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tocat-users.xml 파일 제일 하단에 사용자 추가 및 추가 사용자의 역할을 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server Status 페이지만을 볼 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager 기능을 HTML interface를 통해 access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager 기능을 CI등을 활용해 외부에서 연결 시 script access 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고 관리자 권한을 HTML interface를 통해 access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고 관리자 권한을 script access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;user username="keduit" password="1234" roles="manager-gui,manager-script,manager-status,admin-gui,admin-script"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안 상 필요한 기능만 넣어주는 것이 좋음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager 페이지 외부 접속을 위한 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3). tomcat server.xml 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi /opt/tomcat/conf/server.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">secretRequired="false"  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Connector protocol 부분의 주석 해제 (115, 121번 라인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJP프로토콜을 사용하게 되면 HTTP를 통해 Tomcat의 내부 데이터 구조를 직접적으로 조회 및 조작할 수 있으므로 Apache Tomcat 9 버전 이상부터는 추가 보안 사항</t>
+  </si>
+  <si>
+    <t>옵션 중 address, secret, secretRequired 및 allowedRequestAttributesPattern 등을 설정을 해야 정상적으로 연동이 가능하며 secretRequired="false"는 비밀번호 없이 연동을 뜻 함</t>
+  </si>
+  <si>
+    <t>secretRequired - 설정하지 않으면 기본값이 true</t>
+  </si>
+  <si>
+    <t>즉, 기본적으로 보안(SSL) 응답 요청을 하기 때문에 address, secret 설정이 없다면 HTTP -&gt; Tomcat 웹 연결 시 넘어가지 못하고 무한 로딩 상태가 됨</t>
+  </si>
+  <si>
+    <t>테스트를 위해 또는 기본 내부 네트워크(신뢰할 수 있는 네트워크) 환경이라면 "false" 옵션을 주고 그렇지 않다면 true 옵션을 사용하고 비밀번호 지정</t>
+  </si>
+  <si>
+    <t>address - IP 주소가 두 개 이상인 서버의 경우 이 속성은 지정된 포트에서 수신 대기하는 데 사용할 주소를 지정</t>
+  </si>
+  <si>
+    <t>기본적으로 커넥터는 루프백 주소에서 수신 대기</t>
+  </si>
+  <si>
+    <t>별다른 시스템 속성을 사용하지 않을 경우 기본 커넥터로 address="0.0.0.0"으로 구성하며 IPv4/IPv6 주소 모두에서 수신 대기</t>
+  </si>
+  <si>
+    <t>secret - 기본값이 NULL 상태로 secretRequired가 명시적으로 구성되지 않는 한 값으로 지정되어야 처리</t>
+  </si>
+  <si>
+    <t>값으로 구성된 경우는 세팅 시 Apache와 Tomcat 같은 보안 키가 일치해야 하며 그렇지 않으면 secretRequired 설정에 관계없이 요청이 거부</t>
+  </si>
+  <si>
+    <t>vi /etc/httpd/conf.d/workers.properties  (worker 설정)</t>
+  </si>
+  <si>
+    <t>worker.tomcat.secret=eztest1234  (값을 추가)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vi /opt/tomcat/conf/server.xml  (tomcat 설정)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;!-- Define an AJP 1.3 Connector on port 8009 --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Connector protocol="AJP/1.3"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               address="::1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               port="8009"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               secret="eztest1234"  (worker 설정 값과 동일하게 추가)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               redirectPort="8443" /&gt;</t>
+  </si>
+  <si>
+    <t>worker.list=tomcat1,tomcat2</t>
+  </si>
+  <si>
+    <t>worker.tomcat1.port=8009</t>
+  </si>
+  <si>
+    <t>worker.tomcat1.host=localhost</t>
+  </si>
+  <si>
+    <t>worker.tomcat1.type=ajp13</t>
+  </si>
+  <si>
+    <t>worker.tomcat1.lbfactor=1</t>
+  </si>
+  <si>
+    <t>worker.tomcat2.port=8011  (2번째 톰캣-server.xml 설정에서 동일하게 포트 변경)</t>
+  </si>
+  <si>
+    <t>worker.tomcat2.host=localhost</t>
+  </si>
+  <si>
+    <t>worker.tomcat2.type=ajp13</t>
+  </si>
+  <si>
+    <t>worker.tomcat2.lbfactor=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       allow="127\.\d+\.\d+\.\d+|::1|0:0:0:0:0:0:0:1" /&gt;</t>
+  </si>
+  <si>
+    <t>위 그림과 같이 아래 부분 주석 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host-manager 페이지 외부 접속을 위한 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1). mysql-server와 mysql client 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2). mysql 시작 및 재부팅 시 시작 서비스 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3). mysql_secure_installation 옵션을 이용 mysql root password 및 기본 보안 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root password 생성 시 암호화 강도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4). 참고 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql 현재 패스워드 정책 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOW VARIABLES LIKE 'validate_password%';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책 임시 변경 (재부팅 시 초기화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET GLOBAL validate_password.policy=LOW;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET GLOBAL validate_password.policy=MEDIUM;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET GLOBAL validate_password.policy=STRONG;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책 고정 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi /etc/my.cnf.d/mysql-server.cnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 암호 길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대소문자 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수문자 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화 강도 LOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql root의 암호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[mysqld] 부분에 아래 내용 추가 후 mysqld 서비스 재시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--with-apxs=/usr/bin/apxs apache 확장 기능 설치를 도와주는 유틸리티 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> httpd-devel 패키지를 설치할 경우는 기본 경로인 /usr/bin/apxs로 하고 소스로 설치했다면 해당 파일이 있는 경로를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;role rolename="admin-gui"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;role rolename="admin-script"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버가 2개 이상인 경우 아래와 같이 workers.properties 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최초 정상 가동 테스트 시 /opt/tomcat/bin/startup.sh 실행 했을 때 root 사용자로 실행을 해 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log 파일이 root의 권한으로 생성이 되어 발생하는 문제로 소유 권한 지정 후 tomcat 서비스 실행하면 정상 작동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat &lt;&lt;EOF &gt;&gt; /etc/chrony.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER user 'root'@'localhost' IDENTIFIED WITH mysql_native_password BY '1234';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql root의 외부 접속 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE USER 'root'@'%' IDENTIFIED BY '1234';</t>
+  </si>
+  <si>
+    <t>GRANT ALL PRIVILEGES ON *.* TO 'root'@'%' WITH GRANT OPTION;</t>
+  </si>
   <si>
     <t>dnf update -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dnf config-manager --set-enabled powertools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sed -i 's/SELINUX=enforcing/SELINUX=permissive/' /etc/selinux/config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sestatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dnf install epel-release -y</t>
-  </si>
-  <si>
-    <t>dnf repolist</t>
-  </si>
-  <si>
-    <t>hostnamectl set-hostname tomcat</t>
-  </si>
-  <si>
-    <t>sed -i 's/SELINUX=enforcing/SELINUX=permissive/' /etc/selinux/config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>setenforce 0</t>
-  </si>
-  <si>
-    <t>setstatus</t>
-  </si>
-  <si>
-    <t>dnf install chrony -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sed -i 's/^pool/\#pool/' /etc/chrony.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sed -i 's/^server/\#server/' /etc/chrony.conf</t>
-  </si>
-  <si>
-    <t>cat &lt;&lt;EOF &gt; /etc/chrony.conf</t>
-  </si>
-  <si>
-    <t>server time.bora.net</t>
-  </si>
-  <si>
-    <t>server time.google.com</t>
-  </si>
-  <si>
-    <t>EOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>systemctl enable --now chronyd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chronyc sources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>timedatectl set-timezone Asia/Seoul</t>
-  </si>
-  <si>
-    <t>dnf list java*</t>
-  </si>
-  <si>
-    <t>dnf install java-1.8.0-openjdk.x86_64 -y</t>
-  </si>
-  <si>
-    <t>java -version</t>
-  </si>
-  <si>
-    <t>update-alternatives --config java</t>
-  </si>
-  <si>
-    <t>groupadd tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>useradd -g tomcat -s /sbin/nologin -d /opt/tomcat tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">cat /etc/passwd | grep tomcat </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dnf install wget gzip bzip2 xz zip unzip -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wget https://dlcdn.apache.org/tomcat/tomcat-9/v9.0.70/bin/apache-tomcat-9.0.70.tar.gz</t>
-  </si>
-  <si>
-    <t>tar -zxvf apache-tomcat-10.0.10.tar.gz -C /opt/tomcat --strip-components=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar -zxvf apache-tomcat-9.0.70.tar.gz -C /opt/tomcat --strip-components=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ls -l /opt/tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chown -R tomcat:tomcat /opt/tomcat</t>
-  </si>
-  <si>
-    <t>ls -l /opt</t>
-  </si>
-  <si>
-    <t>sh -c 'chmod +x /opt/tomcat/bin/*.sh'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ls -al /opt/tomcat/bin | grep ".sh" </t>
-  </si>
-  <si>
-    <t>/opt/tomcat/bin/startup.sh</t>
-  </si>
-  <si>
-    <t>ps -ef | grep tomcat</t>
-  </si>
-  <si>
-    <t>/opt/tomcat/bin/shutdown.sh</t>
-  </si>
-  <si>
-    <t>ss -tnlp | grep java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>firewall-cmd --permanent --add-port=8080/tcp</t>
-  </si>
-  <si>
-    <t>firewall-cmd --reload</t>
-  </si>
-  <si>
-    <t>firewall-cmd --list-all</t>
-  </si>
-  <si>
-    <t>cat &lt;&lt;EOF &gt;/etc/systemd/system/tomcat.service</t>
-  </si>
-  <si>
-    <t>[Unit]</t>
-  </si>
-  <si>
-    <t>Description=Tomcat webs servlet container</t>
-  </si>
-  <si>
-    <t>After=network.target</t>
-  </si>
-  <si>
-    <t>[Service]</t>
-  </si>
-  <si>
-    <t>Type=forking</t>
-  </si>
-  <si>
-    <t>User=tomcat</t>
-  </si>
-  <si>
-    <t>Group=tomcat</t>
-  </si>
-  <si>
-    <t>Environment="JAVA_HOME=/usr/lib/jvm/jre"</t>
-  </si>
-  <si>
-    <t>Environment="JAVA_OPTS=-Djava.awt.headless=true -Djava.security.egd=file:/dev/./urandom"</t>
-  </si>
-  <si>
-    <t>Environment="CATALINA_BASE=/opt/tomcat"</t>
-  </si>
-  <si>
-    <t>Environment="CATALINA_HOME=/opt/tomcat"</t>
-  </si>
-  <si>
-    <t>Environment="CATALINA_PID=/opt/tomcat/temp/tomcat.pid"</t>
-  </si>
-  <si>
-    <t>Environment="CATALINA_OPTS=-Xms512M -Xmx1024M -server -XX:+UseParallelGC"</t>
-  </si>
-  <si>
-    <t>ExecStart=/opt/tomcat/bin/startup.sh</t>
-  </si>
-  <si>
-    <t>ExecStop=/opt/tomcat/bin/shutdown.sh</t>
-  </si>
-  <si>
-    <t>[Install]</t>
-  </si>
-  <si>
-    <t>WantedBy=multi-user.target</t>
-  </si>
-  <si>
-    <t>systemctl start tomcat</t>
-  </si>
-  <si>
-    <t>systemctl enable tomcat</t>
-  </si>
-  <si>
-    <t>연동 방식은 mod_jk / mod_proxy / mod_prox_ajp 3가지 모듈 방식이 있지만 아파치에서 가장 많이 사용되는 mod_jk 이용 연동</t>
-  </si>
-  <si>
-    <t>dnf install httpd make gcc gcc-c++ httpd-devel redhat-rpm-config -y</t>
-  </si>
-  <si>
-    <t>wget https://dlcdn.apache.org/tomcat/tomcat-connectors/jk/tomcat-connectors-1.2.48-src.tar.gz</t>
-  </si>
-  <si>
-    <t>tar zxvf tomcat-connectors-1.2.48-src.tar.gz</t>
-  </si>
-  <si>
-    <t>cd tomcat-connectors-1.2.48-src/native</t>
-  </si>
-  <si>
-    <t>./configure --with-apxs=/usr/bin/apxs</t>
-  </si>
-  <si>
-    <t>make &amp;&amp; make install</t>
-  </si>
-  <si>
-    <t>ls -al /etc/httpd/modules/mod_jk.so</t>
-  </si>
-  <si>
-    <t>echo 'LoadModule jk_module modules/mod_jk.so' &gt;&gt; /etc/httpd/conf.modules.d/00-base.conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat &lt;&lt;EOF &gt; /etc/httpd/conf.d/tomcat-vhost.conf </t>
-  </si>
-  <si>
-    <t>&lt;VirtualHost *:80&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ServerName localhost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DocumentRoot "/opt/tomcat/webapps/ROOT"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;Directory "/opt/tomcat/webapps/ROOT"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          AllowOverride None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Require all granted</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;/Directory&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DirectoryIndex index.html index.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  JkMount /*.jsp tomcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  JkMount /*.json tomcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  JkMount /*.xml tomcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  JkMount /*.do tomcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  JkMount / tomcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  JkMount /* tomcat</t>
-  </si>
-  <si>
-    <t>&lt;/VirtualHost&gt;</t>
-  </si>
-  <si>
-    <t>cat &lt;&lt;EOF &gt; /etc/httpd/conf.d/workers.properties</t>
-  </si>
-  <si>
-    <t>worker.list=tomcat</t>
-  </si>
-  <si>
-    <t>worker.tomcat.port=8009</t>
-  </si>
-  <si>
-    <t>worker.tomcat.host=localhost</t>
-  </si>
-  <si>
-    <t>worker.tomcat.type=ajp13</t>
-  </si>
-  <si>
-    <t>worker.tomcat.lbfactor=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat &lt;&lt;EOF &gt; /etc/httpd/conf.modules.d/mod_jk.conf </t>
-  </si>
-  <si>
-    <t>&lt;IfModule mod_jk.c&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   JkWorkersFile conf.d/workers.properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   JkShmFile run/mod_jk.shm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   JkLogFile logs/mod_jk.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   JkLogLevel info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   JkLogStampFormat "[%y-%m-%d %H:%M:%S.%Q] "</t>
-  </si>
-  <si>
-    <t>&lt;/IfModule&gt;</t>
-  </si>
-  <si>
-    <t>sed -i "s/^User apache/User tomcat/" /etc/httpd/conf/httpd.conf</t>
-  </si>
-  <si>
-    <t>sed -i "s/^Group apache/Group tomcat/" /etc/httpd/conf/httpd.conf</t>
-  </si>
-  <si>
-    <t>firewall-cmd --permanent --add-port=80/tcp</t>
-  </si>
-  <si>
-    <t>ls -l /opt/tomcat/conf</t>
-  </si>
-  <si>
-    <t>vi /opt/tomcat/conf/tomcat-users.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;role rolename="manager-gui"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;role rolename="manager-script"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;role rolename="manager-status"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vi /opt/tomcat/webapps/manager/META-INF/context.xml</t>
-  </si>
-  <si>
-    <t>&lt;Valve className="org.apache.catalina.valves.RemoteAddrValve"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       allow=".*" /&gt;</t>
-  </si>
-  <si>
-    <t>vi /opt/tomcat/webapps/host-manager/META-INF/context.xml</t>
-  </si>
-  <si>
-    <t>dnf install mysql-server mysql -y</t>
-  </si>
-  <si>
-    <t>systemctl enable --now mysqld</t>
-  </si>
-  <si>
-    <t>LOW : 8자리 이상</t>
-  </si>
-  <si>
-    <t>MEDIUM : 8자리 이상 + 숫자 + 대문자 + 소문자 + 특수문자가 모두 포함되어 있어야 함</t>
-  </si>
-  <si>
-    <t>STRONG : MEDIUM 정책 + dictionary file이란 것을 등록해서 사용하게 되고 이 파일에 포함되 단어는 비밀번호로 사용할 수 없다.</t>
-  </si>
-  <si>
-    <t># Password Policy</t>
-  </si>
-  <si>
-    <t>validate_password.length=4</t>
-  </si>
-  <si>
-    <t>validate_password.mixed_case_count=0</t>
-  </si>
-  <si>
-    <t>validate_password.number_count=0</t>
-  </si>
-  <si>
-    <t>validate_password.policy=LOW</t>
-  </si>
-  <si>
-    <t>validate_password.special_char_count=0</t>
-  </si>
-  <si>
-    <t>ALTER user 'root'@'localhost' IDENTIFIED WITH mysql_native_password BY '1234';</t>
-  </si>
-  <si>
-    <t>1. 기본 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1). 시스템 update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2). epel-release 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3). 설치 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4). hostname 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5). selinux 해제및 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(6). ntp 동기화 서비스 설치 및 server 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. tomcat 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1). java 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2). tomcat user 및 group 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3). tomcat 다운로드 및 tomcat 다운로드를 위한 wget과 tar 압축지원 프로그램 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4). tomcat 가동을 위한 환경 설정 및 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. apache(httpd) 서버 설치 및 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1). apache(httpd)설치 및 mod_jk source 설치를 위한 컴파일 도구 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2). tomcat 가상 호스트 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. tomcat web 관리 사용자 계정 추가 및 접속 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. mysql DB 설치 및 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운 ntp 서버 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default ntp 동기화 pool과 서버 주석처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntp 동기화 서비스 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chronyd 서비스 시작 및 시작 서비스 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntp source 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국 표준시간(KST) 시간 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치 가능한 java jdk 버전확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java jdk 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치된 java version 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러개의 java jdk가 설치되어 있을 경우 활성화할 java jdk 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 그룹 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat user 생성 및 tomcat 그룹에 추가하고 tomcat의 home directory 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat user 생성 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 다운로드 시 필요한 프로그램 설치 (gzip, bzip2, xz, zip, unzip은 압축해제 프로그램으로 gzip만 설치해도 됨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 다운로드(https://tomcat.apache.org 에서 필요한 버전 선택)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다운받은 tomcat 압축을 /opt/tomcat 폴더에 해제 (--strip-components는 상위 디렉터리 1개 없애줌)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압축이 정상적으로 풀려서 원하는 폴더에 설치되어 있는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/tomcat 폴더의 소유자및 그룹 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소유자 및 그룹 지정 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 실행 shell script에 실행 권한 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실행 권한 지정 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정상 실행 확인 위한 log 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tail -n 20 /opt/tomcat/logs/catalina.out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 실행 port 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 실행 port 방화벽 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 서비스로 등록해 사용하기 위한 서비스 파일 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 서비스 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정상 실행이 되지 않고 에러 발생 시 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">chown -R tomcat:tomcat /opt/tomcat </t>
-  </si>
-  <si>
-    <t>mod_jk는 source install을 통해 apache module에 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apache(httpd)설치 및 컴파일 도구 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mod_jk 다운로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압축해제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source 컴파일을 위해 소스가 있는 폴더로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>configure를 통해 컴파일 환경설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴파일(make) 및 실행 파일 복사(make install)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mod_jk 모듈이 아파치 모듈에 설치되어 있는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mod_jk 모듈을 아파치 모듈 환경설정에 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat 가상 호스트 파일 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도메인 이름이 있는 경우 도메인 이름으로 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat의 root directory 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디렉터리 접근 방식 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 문서 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jk_mod를 통해 jsp, json, xml, do 파일과 경로만 지정된 경우 tomcat이라는 이름을 가진 worker를 통해 요청을 보내도록 하는 부분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 부분이 없으면 연동이 되지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worker 파일 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worker 파일 이름으로 가상호스트에서 jkMount의 제일 마지막에 있는 이름과 일치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worker의 port 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worker의 host로 tomcat이 다른 서버에 구축되어 있다면 해당 IP를 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apahce와 Tomcat이 통신하기 위한 Protocol(프로토콜) ajp13을 이용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일종의 로드밸런싱 같은 개념으로 1개일 때는 크게 의미가 없으나 2개 이상의 톰캣을 설치하여 운영할 경우 숫자의 비율로 작업을 처리한다는 의미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mod_jk 환경 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workers 파일 정의 설정 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공유 메모리 파일 위치, Selinux 보안을 사용할 경우는 무조건 run 경로로 설정 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그 생성 경로, 일정 버전 이상일 경우는 로테이션 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그 파일에 있는 날짜/시간 형식 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apahce(httpd)실행 시 사용자, 그룹을 tomcat으로 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apache(httpd) port 방화벽 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 추가를 위한 tomcat-users.xml 파일 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tocat-users.xml 파일 제일 하단에 사용자 추가 및 추가 사용자의 역할을 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server Status 페이지만을 볼 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager 기능을 HTML interface를 통해 access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager 기능을 CI등을 활용해 외부에서 연결 시 script access 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고 관리자 권한을 HTML interface를 통해 access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고 관리자 권한을 script access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;user username="keduit" password="1234" roles="manager-gui,manager-script,manager-status,admin-gui,admin-script"/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보안 상 필요한 기능만 넣어주는 것이 좋음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager 페이지 외부 접속을 위한 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3). tomcat server.xml 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vi /opt/tomcat/conf/server.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">secretRequired="false"  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Connector protocol 부분의 주석 해제 (115, 121번 라인)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJP프로토콜을 사용하게 되면 HTTP를 통해 Tomcat의 내부 데이터 구조를 직접적으로 조회 및 조작할 수 있으므로 Apache Tomcat 9 버전 이상부터는 추가 보안 사항</t>
-  </si>
-  <si>
-    <t>옵션 중 address, secret, secretRequired 및 allowedRequestAttributesPattern 등을 설정을 해야 정상적으로 연동이 가능하며 secretRequired="false"는 비밀번호 없이 연동을 뜻 함</t>
-  </si>
-  <si>
-    <t>secretRequired - 설정하지 않으면 기본값이 true</t>
-  </si>
-  <si>
-    <t>즉, 기본적으로 보안(SSL) 응답 요청을 하기 때문에 address, secret 설정이 없다면 HTTP -&gt; Tomcat 웹 연결 시 넘어가지 못하고 무한 로딩 상태가 됨</t>
-  </si>
-  <si>
-    <t>테스트를 위해 또는 기본 내부 네트워크(신뢰할 수 있는 네트워크) 환경이라면 "false" 옵션을 주고 그렇지 않다면 true 옵션을 사용하고 비밀번호 지정</t>
-  </si>
-  <si>
-    <t>address - IP 주소가 두 개 이상인 서버의 경우 이 속성은 지정된 포트에서 수신 대기하는 데 사용할 주소를 지정</t>
-  </si>
-  <si>
-    <t>기본적으로 커넥터는 루프백 주소에서 수신 대기</t>
-  </si>
-  <si>
-    <t>별다른 시스템 속성을 사용하지 않을 경우 기본 커넥터로 address="0.0.0.0"으로 구성하며 IPv4/IPv6 주소 모두에서 수신 대기</t>
-  </si>
-  <si>
-    <t>secret - 기본값이 NULL 상태로 secretRequired가 명시적으로 구성되지 않는 한 값으로 지정되어야 처리</t>
-  </si>
-  <si>
-    <t>값으로 구성된 경우는 세팅 시 Apache와 Tomcat 같은 보안 키가 일치해야 하며 그렇지 않으면 secretRequired 설정에 관계없이 요청이 거부</t>
-  </si>
-  <si>
-    <t>vi /etc/httpd/conf.d/workers.properties  (worker 설정)</t>
-  </si>
-  <si>
-    <t>worker.tomcat.secret=eztest1234  (값을 추가)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vi /opt/tomcat/conf/server.xml  (tomcat 설정)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;!-- Define an AJP 1.3 Connector on port 8009 --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;Connector protocol="AJP/1.3"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               address="::1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               port="8009"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               secret="eztest1234"  (worker 설정 값과 동일하게 추가)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               redirectPort="8443" /&gt;</t>
-  </si>
-  <si>
-    <t>worker.list=tomcat1,tomcat2</t>
-  </si>
-  <si>
-    <t>worker.tomcat1.port=8009</t>
-  </si>
-  <si>
-    <t>worker.tomcat1.host=localhost</t>
-  </si>
-  <si>
-    <t>worker.tomcat1.type=ajp13</t>
-  </si>
-  <si>
-    <t>worker.tomcat1.lbfactor=1</t>
-  </si>
-  <si>
-    <t>worker.tomcat2.port=8011  (2번째 톰캣-server.xml 설정에서 동일하게 포트 변경)</t>
-  </si>
-  <si>
-    <t>worker.tomcat2.host=localhost</t>
-  </si>
-  <si>
-    <t>worker.tomcat2.type=ajp13</t>
-  </si>
-  <si>
-    <t>worker.tomcat2.lbfactor=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       allow="127\.\d+\.\d+\.\d+|::1|0:0:0:0:0:0:0:1" /&gt;</t>
-  </si>
-  <si>
-    <t>위 그림과 같이 아래 부분 주석 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>host-manager 페이지 외부 접속을 위한 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1). mysql-server와 mysql client 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2). mysql 시작 및 재부팅 시 시작 서비스 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3). mysql_secure_installation 옵션을 이용 mysql root password 및 기본 보안 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root password 생성 시 암호화 강도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4). 참고 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql 현재 패스워드 정책 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHOW VARIABLES LIKE 'validate_password%';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정책 임시 변경 (재부팅 시 초기화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SET GLOBAL validate_password.policy=LOW;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SET GLOBAL validate_password.policy=MEDIUM;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SET GLOBAL validate_password.policy=STRONG;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정책 고정 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vi /etc/my.cnf.d/mysql-server.cnf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 암호 길이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대소문자 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수문자 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암호화 강도 LOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql root의 암호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[mysqld] 부분에 아래 내용 추가 후 mysqld 서비스 재시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--with-apxs=/usr/bin/apxs apache 확장 기능 설치를 도와주는 유틸리티 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> httpd-devel 패키지를 설치할 경우는 기본 경로인 /usr/bin/apxs로 하고 소스로 설치했다면 해당 파일이 있는 경로를 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;role rolename="admin-gui"/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;role rolename="admin-script"/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버가 2개 이상인 경우 아래와 같이 workers.properties 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">최초 정상 가동 테스트 시 /opt/tomcat/bin/startup.sh 실행 했을 때 root 사용자로 실행을 해 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log 파일이 root의 권한으로 생성이 되어 발생하는 문제로 소유 권한 지정 후 tomcat 서비스 실행하면 정상 작동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,7 +2308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,6 +2376,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1617,10 +2955,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AF68C8-C11C-49A3-83E9-6D58E3B211E6}">
-  <dimension ref="A1:H339"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AF68C8-C11C-49A3-83E9-6D58E3B211E6}">
+  <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B326" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D317" sqref="D317"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1635,537 +2975,537 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
-        <v>1</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="7" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="7" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="7" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="7" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="1" t="s">
-        <v>24</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59" s="1" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61" s="1" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="1" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65" s="1" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="7" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68" s="1" t="s">
-        <v>29</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D70" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="7" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D78" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="7" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D80" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D82" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D84" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D86" s="1" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D88" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D90" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D92" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D93" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D95" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D96" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D98" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D99" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D101" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D102" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D104" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D105" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D106" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D107" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D109" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D110" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="4:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D112" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D113" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D116" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D117" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D120" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E121" s="8" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E122" s="8" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,449 +3513,449 @@
     </row>
     <row r="126" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D132" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D134" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D136" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D138" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="7" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D140" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E141" s="9" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E142" s="9" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D144" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D146" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D148" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D152" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D153" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D154" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D155" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D157" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D158" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D159" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D160" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D162" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D164" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D165" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D166" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D167" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D168" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D169" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D170" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D171" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D174" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D175" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D176" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D177" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D178" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D179" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D180" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H181" s="5" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H183" s="5" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H184" s="5" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H185" s="5" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="186" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H186" s="5" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H188" s="5" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H189" s="5" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H190" s="5" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H191" s="5" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="7" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D196" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="197" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D197" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="198" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D198" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D199" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D200" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D201" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D202" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="203" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D203" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D204" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="7" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D207" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="208" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D208" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="209" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="7" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="210" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D210" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="211" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D211" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D212" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="4" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="216" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D216" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="217" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E217" s="5" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="218" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E218" s="5" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="219" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2650,12 +3990,12 @@
     </row>
     <row r="229" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E229" s="5" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="230" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E230" s="5" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="231" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2663,17 +4003,17 @@
     </row>
     <row r="232" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E232" s="5" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="233" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E233" s="5" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="234" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E234" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="235" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2684,17 +4024,17 @@
     </row>
     <row r="237" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E237" s="5" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="238" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E238" s="5" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E239" s="5" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="240" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2702,12 +4042,12 @@
     </row>
     <row r="241" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E241" s="5" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="242" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E242" s="5" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="243" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2718,37 +4058,37 @@
     </row>
     <row r="245" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E245" s="5" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="246" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E246" s="5" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="247" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E247" s="5" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="248" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E248" s="5" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="249" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E249" s="5" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="250" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E250" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E251" s="5" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="252" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2759,345 +4099,360 @@
     </row>
     <row r="254" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E254" s="5" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="255" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E255" s="5" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="256" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E256" s="5" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E257" s="5" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E258" s="5" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E259" s="5" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E260" s="5" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C264" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D265" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C266" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D267" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D268" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D269" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D270" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D271" s="3" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D272" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="273" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D273" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="274" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="275" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D275" s="1" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
     </row>
     <row r="282" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="7" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="283" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D283" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="284" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D284" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="285" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="286" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D286" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D287" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="7" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D290" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="7" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D298" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D299" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D301" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D302" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="4" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="305" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D305" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="4" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="307" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D307" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="309" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="4" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="310" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="7" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="311" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="7" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="312" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="7" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="315" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="4" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="316" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="7" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="317" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D317" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="318" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="7" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="319" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D319" s="1" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="321" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D321" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="323" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D323" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="325" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="7" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="326" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D326" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="328" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="7" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="330" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D330" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="331" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D331" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="332" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D332" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="333" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D333" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="334" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D334" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="335" spans="3:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D335" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="338" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="7" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="339" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D339" s="1" t="s">
-        <v>122</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C341" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D342" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D343" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3105,5 +4460,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>